--- a/filedrop/9289_filedrop.xlsx
+++ b/filedrop/9289_filedrop.xlsx
@@ -1,41 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahame\OneDrive\Documents\GitHub\DHRM-API-main\filedrop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628717E-9022-408A-BBC0-8C9B2D8DBF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>AY06</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>2I</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>V SANJAY</t>
+  </si>
+  <si>
+    <t>09/10/2003</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Tittakudi</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>N0-182 SOUTH STREET KANAPAHY KURITCHY KILIMANGALAM</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>490399984311</t>
+  </si>
+  <si>
+    <t>464656</t>
+  </si>
+  <si>
+    <t>VEERAPANDIYAN</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +122,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,87 +461,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>9289</v>
       </c>
-      <c r="B1" t="str">
-        <v>2023-02-09</v>
-      </c>
-      <c r="C1" t="str">
-        <v>02</v>
-      </c>
-      <c r="D1" t="str">
-        <v>NEW</v>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
       <c r="E1">
         <v>1020</v>
       </c>
-      <c r="F1" t="str">
-        <v>AY06</v>
-      </c>
-      <c r="G1" t="str">
-        <v>1</v>
-      </c>
-      <c r="H1" t="str">
-        <v>1150</v>
-      </c>
-      <c r="I1" t="str">
-        <v>2I</v>
-      </c>
-      <c r="J1" t="str">
-        <v>01</v>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
       </c>
       <c r="K1">
         <v>47</v>
       </c>
-      <c r="L1" t="str">
-        <v>V</v>
-      </c>
-      <c r="M1" t="str">
-        <v>V SANJAY</v>
-      </c>
-      <c r="O1" t="str">
-        <v>1</v>
-      </c>
-      <c r="P1" t="str">
-        <v>09/10/2003</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>IN</v>
-      </c>
-      <c r="R1" t="str">
-        <v>22</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Tittakudi</v>
-      </c>
-      <c r="T1" t="str">
-        <v>IN</v>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
       </c>
       <c r="U1">
         <v>91</v>
       </c>
-      <c r="V1" t="str">
-        <v>0</v>
-      </c>
-      <c r="W1" t="str">
-        <v>103</v>
-      </c>
-      <c r="X1" t="str">
-        <v>N0-182 SOUTH STREET KANAPAHY KURITCHY KILIMANGALAM</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>103</v>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
       </c>
       <c r="AA1" t="b">
         <v>1</v>
@@ -490,8 +561,8 @@
       <c r="AD1" t="b">
         <v>1</v>
       </c>
-      <c r="AE1" t="str">
-        <v>100</v>
+      <c r="AE1" t="s">
+        <v>17</v>
       </c>
       <c r="AF1" t="b">
         <v>1</v>
@@ -505,8 +576,8 @@
       <c r="AI1" t="b">
         <v>1</v>
       </c>
-      <c r="AJ1" t="str">
-        <v>101</v>
+      <c r="AJ1" t="s">
+        <v>18</v>
       </c>
       <c r="AK1" t="b">
         <v>0</v>
@@ -532,19 +603,20 @@
       <c r="AR1" t="b">
         <v>0</v>
       </c>
-      <c r="AS1" t="str">
-        <v>490399984311</v>
-      </c>
-      <c r="AT1" t="str">
-        <v>464656</v>
-      </c>
-      <c r="AU1" t="str">
-        <v>VEERAPANDIYAN</v>
+      <c r="AS1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AU1"/>
+    <ignoredError sqref="A1:AU1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>